--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T07:43:46+00:00</t>
+    <t>2025-10-24T09:56:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-24T09:56:53+00:00</t>
+    <t>2025-10-27T08:54:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.1.0}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.1.0}
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period}
+    <t xml:space="preserve">Extension {organization-period|5.2.0}
 </t>
   </si>
   <si>
@@ -818,7 +818,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -927,7 +927,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1418,7 +1418,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -1440,7 +1440,7 @@
     <t>organizationType</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.1.0</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1521,7 +1521,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250523120000</t>
   </si>
   <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
@@ -1566,7 +1566,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -1648,7 +1648,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
 </t>
   </si>
   <si>
@@ -1712,7 +1712,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
 </t>
   </si>
   <si>
@@ -1865,7 +1865,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
   </si>
   <si>
     <t>./type</t>
@@ -1912,7 +1912,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -2246,7 +2246,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.71875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2261,7 +2261,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T08:54:54+00:00</t>
+    <t>2025-10-27T14:34:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -111,7 +111,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -439,7 +439,7 @@
     <t>Organization.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(StructureDefinition)
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -514,7 +514,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -557,7 +557,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -633,7 +633,7 @@
     <t>shortName</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-short-name}
 </t>
   </si>
   <si>
@@ -650,7 +650,7 @@
     <t>description</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description|2.1.0}
+    <t xml:space="preserve">Extension {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization-description}
 </t>
   </si>
   <si>
@@ -663,7 +663,7 @@
     <t>usePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {organization-period|5.2.0}
+    <t xml:space="preserve">Extension {organization-period}
 </t>
   </si>
   <si>
@@ -818,7 +818,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -927,7 +927,7 @@
     <t>Organization.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|4.0.1)
+    <t xml:space="preserve">Reference(Organization)
 </t>
   </si>
   <si>
@@ -1418,7 +1418,7 @@
     <t>Used to categorize the organization.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/organization-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/organization-type</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -1440,7 +1440,7 @@
     <t>organizationType</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type|2.1.0</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-organization-type</t>
   </si>
   <si>
     <t>Organization.type:organizationType.id</t>
@@ -1521,7 +1521,7 @@
     <t>Secteurs d'activité des établissements avec la même activité dans le RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS|20250523120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J101-SecteurActivite-RASS/FHIR/JDV-J101-SecteurActivite-RASS</t>
   </si>
   <si>
     <t>Organization.type:secteurActiviteRASS.id</t>
@@ -1566,7 +1566,7 @@
     <t>Catégorie d'établissement du RASS</t>
   </si>
   <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS|20241025120000</t>
+    <t>https://mos.esante.gouv.fr/NOS/JDV_J129-CategorieEtablissement-RASS/FHIR/JDV-J129-CategorieEtablissement-RASS</t>
   </si>
   <si>
     <t>Organization.type:categorieEtablissementRASS.id</t>
@@ -1648,7 +1648,7 @@
     <t>Organization.telecom</t>
   </si>
   <si>
-    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point|2.1.0}
+    <t xml:space="preserve">ContactPoint {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-contact-point}
 </t>
   </si>
   <si>
@@ -1680,7 +1680,7 @@
     <t>Organization.address</t>
   </si>
   <si>
-    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address|2.1.0}
+    <t xml:space="preserve">Address {https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-address}
 </t>
   </si>
   <si>
@@ -1712,7 +1712,7 @@
     <t>Organization.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|2.1.0)
+    <t xml:space="preserve">Reference(https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization)
 </t>
   </si>
   <si>
@@ -1865,7 +1865,7 @@
     <t>The purpose for which you would contact a contact party.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/contactentity-type|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/contactentity-type</t>
   </si>
   <si>
     <t>./type</t>
@@ -1912,7 +1912,7 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint|4.0.1)
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
@@ -2246,7 +2246,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="71.19140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2261,7 +2261,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="107.44921875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="92.91796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-27T14:34:13+00:00</t>
+    <t>2025-10-28T10:21:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T10:21:51+00:00</t>
+    <t>2025-10-28T15:41:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
+++ b/383-cp---vérification-qa/ig/StructureDefinition-tddui-organization.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:41:17+00:00</t>
+    <t>2025-10-29T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
